--- a/data/trans_orig/P5B_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P5B_R-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E800790-89BB-48EC-93C6-DF3FB29AEEC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9A25F3F5-23F9-445E-B390-4B760E6AE332}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F3E56F6E-E70F-4649-8FA2-6217892F14B9}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{E855C696-B585-451A-B268-43B340A0E6E3}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="503">
   <si>
     <t>Población que percibe la calidad medioambiental como mala o muy mala en la zona de residencia en 2007 (Tasa respuesta: 99,92%)</t>
   </si>
@@ -581,7 +581,58 @@
     <t>Población que percibe la calidad medioambiental como mala o muy mala en la zona de residencia en 2012 (Tasa respuesta: 99,54%)</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
   </si>
   <si>
     <t>4,91%</t>
@@ -659,40 +710,52 @@
     <t>99,26%</t>
   </si>
   <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
   </si>
   <si>
     <t>2,37%</t>
@@ -878,9 +941,6 @@
     <t>2,12%</t>
   </si>
   <si>
-    <t>1,63%</t>
-  </si>
-  <si>
     <t>1,22%</t>
   </si>
   <si>
@@ -902,9 +962,6 @@
     <t>98,77%</t>
   </si>
   <si>
-    <t>98,37%</t>
-  </si>
-  <si>
     <t>98,78%</t>
   </si>
   <si>
@@ -1214,9 +1271,6 @@
     <t>1,73%</t>
   </si>
   <si>
-    <t>0,53%</t>
-  </si>
-  <si>
     <t>0,26%</t>
   </si>
   <si>
@@ -1235,9 +1289,6 @@
     <t>98,27%</t>
   </si>
   <si>
-    <t>99,47%</t>
-  </si>
-  <si>
     <t>98,99%</t>
   </si>
   <si>
@@ -1295,34 +1346,43 @@
     <t>Población que percibe la calidad medioambiental como mala o muy mala en la zona de residencia en 2023 (Tasa respuesta: 99,74%)</t>
   </si>
   <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
   </si>
   <si>
     <t>0,75%</t>
   </si>
   <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>99,88%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
     <t>1,65%</t>
   </si>
   <si>
     <t>0,79%</t>
   </si>
   <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
   </si>
   <si>
     <t>98,35%</t>
@@ -1331,178 +1391,163 @@
     <t>99,21%</t>
   </si>
   <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
   </si>
   <si>
     <t>0,23%</t>
   </si>
   <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
   </si>
   <si>
     <t>99,77%</t>
   </si>
   <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
   </si>
 </sst>
 </file>
@@ -1914,7 +1959,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E4E6EF2-7EC1-4F0A-AE0C-D257DF134F95}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{613EDEF5-24EE-4460-8F98-6282BBB5E99A}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3445,7 +3490,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D93FF74B-F958-46BF-82F5-8290E4C8F154}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4126A8A-FEDD-4083-A7BC-E80DF194CF8D}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3563,43 +3608,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>6</v>
+      </c>
+      <c r="D4" s="7">
+        <v>6753</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>180</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>9</v>
+      </c>
+      <c r="I4" s="7">
+        <v>9362</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>15</v>
+      </c>
+      <c r="N4" s="7">
+        <v>16115</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3608,43 +3659,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>272</v>
+      </c>
+      <c r="D5" s="7">
+        <v>284029</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>241</v>
+      </c>
+      <c r="I5" s="7">
+        <v>271379</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>513</v>
+      </c>
+      <c r="N5" s="7">
+        <v>555408</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3653,43 +3710,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>278</v>
+      </c>
+      <c r="D6" s="7">
+        <v>290782</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>250</v>
+      </c>
+      <c r="I6" s="7">
+        <v>280741</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>528</v>
+      </c>
+      <c r="N6" s="7">
+        <v>571523</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3706,13 +3769,13 @@
         <v>24802</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="H7" s="7">
         <v>19</v>
@@ -3721,10 +3784,10 @@
         <v>20893</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>53</v>
@@ -3739,10 +3802,10 @@
         <v>88</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3757,13 +3820,13 @@
         <v>480725</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="H8" s="7">
         <v>459</v>
@@ -3772,13 +3835,13 @@
         <v>500729</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>61</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="M8" s="7">
         <v>909</v>
@@ -3790,10 +3853,10 @@
         <v>98</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3861,13 +3924,13 @@
         <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -3876,10 +3939,10 @@
         <v>986</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>74</v>
@@ -3891,13 +3954,13 @@
         <v>986</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3912,10 +3975,10 @@
         <v>324046</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>30</v>
@@ -3927,13 +3990,13 @@
         <v>340034</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>83</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="M11" s="7">
         <v>635</v>
@@ -3942,13 +4005,13 @@
         <v>664080</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4010,49 +4073,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D13" s="7">
-        <v>11993</v>
+        <v>5240</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>186</v>
+        <v>225</v>
       </c>
       <c r="H13" s="7">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="I13" s="7">
-        <v>17352</v>
+        <v>7990</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>144</v>
+        <v>226</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="M13" s="7">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="N13" s="7">
-        <v>29345</v>
+        <v>13230</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>210</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>74</v>
+        <v>229</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>211</v>
+        <v>230</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4061,49 +4124,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>611</v>
+        <v>339</v>
       </c>
       <c r="D14" s="7">
-        <v>652771</v>
+        <v>368742</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>212</v>
+        <v>231</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>194</v>
+        <v>232</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c r="H14" s="7">
-        <v>603</v>
+        <v>362</v>
       </c>
       <c r="I14" s="7">
-        <v>651384</v>
+        <v>380005</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>152</v>
+        <v>234</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>214</v>
+        <v>235</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>215</v>
+        <v>236</v>
       </c>
       <c r="M14" s="7">
-        <v>1214</v>
+        <v>701</v>
       </c>
       <c r="N14" s="7">
-        <v>1304155</v>
+        <v>748747</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>216</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>83</v>
+        <v>238</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4112,10 +4175,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>622</v>
+        <v>344</v>
       </c>
       <c r="D15" s="7">
-        <v>664764</v>
+        <v>373982</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4127,10 +4190,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>620</v>
+        <v>370</v>
       </c>
       <c r="I15" s="7">
-        <v>668736</v>
+        <v>387995</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4142,10 +4205,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1242</v>
+        <v>714</v>
       </c>
       <c r="N15" s="7">
-        <v>1333500</v>
+        <v>761977</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4171,13 +4234,13 @@
         <v>5036</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>218</v>
+        <v>239</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="H16" s="7">
         <v>6</v>
@@ -4186,13 +4249,13 @@
         <v>6373</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>222</v>
+        <v>243</v>
       </c>
       <c r="M16" s="7">
         <v>11</v>
@@ -4201,10 +4264,10 @@
         <v>11409</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>224</v>
+        <v>245</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>38</v>
@@ -4222,10 +4285,10 @@
         <v>207582</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>225</v>
+        <v>246</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>226</v>
+        <v>247</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>23</v>
@@ -4237,13 +4300,13 @@
         <v>213218</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>227</v>
+        <v>248</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>229</v>
+        <v>250</v>
       </c>
       <c r="M17" s="7">
         <v>397</v>
@@ -4252,13 +4315,13 @@
         <v>420800</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>230</v>
+        <v>251</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>47</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>231</v>
+        <v>252</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4326,13 +4389,13 @@
         <v>2013</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>232</v>
+        <v>253</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>233</v>
+        <v>254</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -4344,10 +4407,10 @@
         <v>15</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>234</v>
+        <v>255</v>
       </c>
       <c r="M19" s="7">
         <v>3</v>
@@ -4356,10 +4419,10 @@
         <v>3100</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>235</v>
+        <v>256</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>236</v>
+        <v>257</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>145</v>
@@ -4377,13 +4440,13 @@
         <v>271968</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>237</v>
+        <v>258</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>238</v>
+        <v>259</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="H20" s="7">
         <v>267</v>
@@ -4395,10 +4458,10 @@
         <v>26</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>239</v>
+        <v>260</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="M20" s="7">
         <v>526</v>
@@ -4407,13 +4470,13 @@
         <v>549877</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>240</v>
+        <v>261</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>154</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>241</v>
+        <v>262</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4484,10 +4547,10 @@
         <v>110</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>242</v>
+        <v>263</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>243</v>
+        <v>264</v>
       </c>
       <c r="H22" s="7">
         <v>4</v>
@@ -4496,13 +4559,13 @@
         <v>5696</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>244</v>
+        <v>265</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>246</v>
+        <v>267</v>
       </c>
       <c r="M22" s="7">
         <v>9</v>
@@ -4511,13 +4574,13 @@
         <v>10417</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>247</v>
+        <v>268</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>248</v>
+        <v>269</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>249</v>
+        <v>270</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4535,10 +4598,10 @@
         <v>120</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>250</v>
+        <v>271</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>251</v>
+        <v>272</v>
       </c>
       <c r="H23" s="7">
         <v>631</v>
@@ -4547,13 +4610,13 @@
         <v>687134</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>252</v>
+        <v>273</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>253</v>
+        <v>274</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>254</v>
+        <v>275</v>
       </c>
       <c r="M23" s="7">
         <v>1242</v>
@@ -4562,13 +4625,13 @@
         <v>1343005</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>255</v>
+        <v>276</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>256</v>
+        <v>277</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>257</v>
+        <v>278</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4636,13 +4699,13 @@
         <v>7992</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>258</v>
+        <v>279</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>259</v>
+        <v>280</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>260</v>
+        <v>281</v>
       </c>
       <c r="H25" s="7">
         <v>5</v>
@@ -4651,13 +4714,13 @@
         <v>5329</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>261</v>
+        <v>282</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>262</v>
+        <v>283</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>263</v>
+        <v>284</v>
       </c>
       <c r="M25" s="7">
         <v>12</v>
@@ -4666,13 +4729,13 @@
         <v>13321</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>264</v>
+        <v>285</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>265</v>
+        <v>286</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>266</v>
+        <v>287</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4687,13 +4750,13 @@
         <v>763281</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>267</v>
+        <v>288</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>268</v>
+        <v>289</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>269</v>
+        <v>290</v>
       </c>
       <c r="H26" s="7">
         <v>747</v>
@@ -4702,13 +4765,13 @@
         <v>813463</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>270</v>
+        <v>291</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>271</v>
+        <v>292</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>272</v>
+        <v>293</v>
       </c>
       <c r="M26" s="7">
         <v>1449</v>
@@ -4717,13 +4780,13 @@
         <v>1576745</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>273</v>
+        <v>294</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>274</v>
+        <v>295</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>275</v>
+        <v>296</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4791,13 +4854,13 @@
         <v>56556</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>276</v>
+        <v>297</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>277</v>
+        <v>298</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>278</v>
+        <v>299</v>
       </c>
       <c r="H28" s="7">
         <v>53</v>
@@ -4806,10 +4869,10 @@
         <v>57716</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>279</v>
+        <v>184</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>125</v>
@@ -4821,13 +4884,13 @@
         <v>114272</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>281</v>
+        <v>301</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>282</v>
+        <v>302</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4842,28 +4905,28 @@
         <v>3356246</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>284</v>
+        <v>304</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>285</v>
+        <v>305</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>286</v>
+        <v>306</v>
       </c>
       <c r="H29" s="7">
         <v>3229</v>
       </c>
       <c r="I29" s="7">
-        <v>3483872</v>
+        <v>3483871</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>287</v>
+        <v>194</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>134</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>288</v>
+        <v>307</v>
       </c>
       <c r="M29" s="7">
         <v>6372</v>
@@ -4872,13 +4935,13 @@
         <v>6840117</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>289</v>
+        <v>308</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>290</v>
+        <v>309</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>291</v>
+        <v>310</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4905,7 +4968,7 @@
         <v>3282</v>
       </c>
       <c r="I30" s="7">
-        <v>3541588</v>
+        <v>3541587</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -4958,7 +5021,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFE02104-F117-49A3-9146-5B9B1C93498E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CC00347-6A0A-4537-9A4E-62631CF40C3F}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4975,7 +5038,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>292</v>
+        <v>311</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5082,10 +5145,10 @@
         <v>15718</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>293</v>
+        <v>312</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>294</v>
+        <v>313</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>130</v>
@@ -5097,13 +5160,13 @@
         <v>13978</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>295</v>
+        <v>314</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>296</v>
+        <v>315</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>297</v>
+        <v>316</v>
       </c>
       <c r="M4" s="7">
         <v>27</v>
@@ -5112,13 +5175,13 @@
         <v>29696</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>298</v>
+        <v>317</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>299</v>
+        <v>318</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5133,13 +5196,13 @@
         <v>277051</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>300</v>
+        <v>319</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>138</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>301</v>
+        <v>320</v>
       </c>
       <c r="H5" s="7">
         <v>264</v>
@@ -5148,13 +5211,13 @@
         <v>274725</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>302</v>
+        <v>321</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>303</v>
+        <v>322</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>304</v>
+        <v>323</v>
       </c>
       <c r="M5" s="7">
         <v>515</v>
@@ -5163,13 +5226,13 @@
         <v>551776</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>226</v>
+        <v>247</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>305</v>
+        <v>324</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>306</v>
+        <v>325</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5237,13 +5300,13 @@
         <v>13330</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>307</v>
+        <v>326</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>224</v>
+        <v>245</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>308</v>
+        <v>327</v>
       </c>
       <c r="H7" s="7">
         <v>23</v>
@@ -5252,13 +5315,13 @@
         <v>25197</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>309</v>
+        <v>328</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>310</v>
+        <v>329</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>311</v>
+        <v>330</v>
       </c>
       <c r="M7" s="7">
         <v>35</v>
@@ -5267,13 +5330,13 @@
         <v>38528</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>312</v>
+        <v>331</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>313</v>
+        <v>332</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>314</v>
+        <v>333</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5288,13 +5351,13 @@
         <v>489245</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>315</v>
+        <v>334</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>316</v>
+        <v>335</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>231</v>
+        <v>252</v>
       </c>
       <c r="H8" s="7">
         <v>461</v>
@@ -5303,13 +5366,13 @@
         <v>497887</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>317</v>
+        <v>336</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>318</v>
+        <v>337</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>319</v>
+        <v>338</v>
       </c>
       <c r="M8" s="7">
         <v>924</v>
@@ -5318,13 +5381,13 @@
         <v>987131</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>320</v>
+        <v>339</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>321</v>
+        <v>340</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>322</v>
+        <v>341</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5392,13 +5455,13 @@
         <v>1639</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>323</v>
+        <v>342</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>324</v>
+        <v>343</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -5407,13 +5470,13 @@
         <v>2135</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>325</v>
+        <v>344</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>326</v>
+        <v>345</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
@@ -5422,13 +5485,13 @@
         <v>3774</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>327</v>
+        <v>346</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>328</v>
+        <v>347</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>329</v>
+        <v>348</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5443,13 +5506,13 @@
         <v>316061</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>330</v>
+        <v>349</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>331</v>
+        <v>350</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="H11" s="7">
         <v>330</v>
@@ -5458,13 +5521,13 @@
         <v>334174</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>332</v>
+        <v>351</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>333</v>
+        <v>352</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="M11" s="7">
         <v>663</v>
@@ -5473,13 +5536,13 @@
         <v>650235</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>334</v>
+        <v>353</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>335</v>
+        <v>354</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>336</v>
+        <v>355</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5547,13 +5610,13 @@
         <v>4537</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>277</v>
+        <v>298</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>337</v>
+        <v>356</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>338</v>
+        <v>357</v>
       </c>
       <c r="H13" s="7">
         <v>10</v>
@@ -5562,13 +5625,13 @@
         <v>11851</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>339</v>
+        <v>358</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>340</v>
+        <v>359</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>341</v>
+        <v>360</v>
       </c>
       <c r="M13" s="7">
         <v>15</v>
@@ -5577,13 +5640,13 @@
         <v>16388</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>342</v>
+        <v>361</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>344</v>
+        <v>363</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5598,13 +5661,13 @@
         <v>363446</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>286</v>
+        <v>306</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>345</v>
+        <v>364</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>346</v>
+        <v>365</v>
       </c>
       <c r="H14" s="7">
         <v>341</v>
@@ -5613,13 +5676,13 @@
         <v>368365</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>347</v>
+        <v>366</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>348</v>
+        <v>367</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>349</v>
+        <v>368</v>
       </c>
       <c r="M14" s="7">
         <v>688</v>
@@ -5628,13 +5691,13 @@
         <v>731810</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>350</v>
+        <v>369</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>351</v>
+        <v>370</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>352</v>
+        <v>371</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5702,13 +5765,13 @@
         <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>353</v>
+        <v>372</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -5717,13 +5780,13 @@
         <v>2905</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>354</v>
+        <v>373</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>259</v>
+        <v>280</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>355</v>
+        <v>374</v>
       </c>
       <c r="M16" s="7">
         <v>3</v>
@@ -5732,13 +5795,13 @@
         <v>2905</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>356</v>
+        <v>375</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>357</v>
+        <v>376</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>358</v>
+        <v>377</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5753,10 +5816,10 @@
         <v>211221</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>359</v>
+        <v>378</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>30</v>
@@ -5768,13 +5831,13 @@
         <v>215682</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>360</v>
+        <v>379</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>361</v>
+        <v>380</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>269</v>
+        <v>290</v>
       </c>
       <c r="M17" s="7">
         <v>432</v>
@@ -5783,13 +5846,13 @@
         <v>426903</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>362</v>
+        <v>381</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>363</v>
+        <v>382</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>364</v>
+        <v>383</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5857,13 +5920,13 @@
         <v>826</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>365</v>
+        <v>384</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>366</v>
+        <v>385</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -5872,10 +5935,10 @@
         <v>1012</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>367</v>
+        <v>386</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>109</v>
@@ -5887,13 +5950,13 @@
         <v>1838</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>368</v>
+        <v>387</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>369</v>
+        <v>388</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5908,13 +5971,13 @@
         <v>262297</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>370</v>
+        <v>389</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>371</v>
+        <v>390</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="H20" s="7">
         <v>260</v>
@@ -5923,13 +5986,13 @@
         <v>269975</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>372</v>
+        <v>391</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>118</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="M20" s="7">
         <v>518</v>
@@ -5938,13 +6001,13 @@
         <v>532272</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>373</v>
+        <v>392</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>374</v>
+        <v>393</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6012,13 +6075,13 @@
         <v>8072</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>375</v>
+        <v>394</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>376</v>
+        <v>395</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>377</v>
+        <v>396</v>
       </c>
       <c r="H22" s="7">
         <v>11</v>
@@ -6027,13 +6090,13 @@
         <v>11742</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>378</v>
+        <v>397</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>379</v>
+        <v>398</v>
       </c>
       <c r="M22" s="7">
         <v>18</v>
@@ -6045,10 +6108,10 @@
         <v>112</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>380</v>
+        <v>399</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6063,13 +6126,13 @@
         <v>643609</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>381</v>
+        <v>400</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>382</v>
+        <v>401</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>383</v>
+        <v>402</v>
       </c>
       <c r="H23" s="7">
         <v>631</v>
@@ -6078,13 +6141,13 @@
         <v>674718</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>384</v>
+        <v>403</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>385</v>
+        <v>404</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>229</v>
+        <v>250</v>
       </c>
       <c r="M23" s="7">
         <v>1200</v>
@@ -6096,10 +6159,10 @@
         <v>121</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>386</v>
+        <v>405</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>229</v>
+        <v>250</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6167,13 +6230,13 @@
         <v>1902</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>387</v>
+        <v>406</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>388</v>
+        <v>407</v>
       </c>
       <c r="H25" s="7">
         <v>6</v>
@@ -6182,13 +6245,13 @@
         <v>6626</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>389</v>
+        <v>408</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>390</v>
+        <v>409</v>
       </c>
       <c r="M25" s="7">
         <v>8</v>
@@ -6197,13 +6260,13 @@
         <v>8528</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>391</v>
+        <v>224</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>392</v>
+        <v>410</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>393</v>
+        <v>411</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6218,13 +6281,13 @@
         <v>776681</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>394</v>
+        <v>412</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>395</v>
+        <v>413</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="H26" s="7">
         <v>749</v>
@@ -6233,13 +6296,13 @@
         <v>819541</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>396</v>
+        <v>414</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>397</v>
+        <v>415</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="M26" s="7">
         <v>1497</v>
@@ -6248,13 +6311,13 @@
         <v>1596222</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>398</v>
+        <v>233</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>399</v>
+        <v>416</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>400</v>
+        <v>417</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6322,13 +6385,13 @@
         <v>46024</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>401</v>
+        <v>418</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>402</v>
+        <v>419</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>403</v>
+        <v>420</v>
       </c>
       <c r="H28" s="7">
         <v>69</v>
@@ -6337,13 +6400,13 @@
         <v>75446</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>404</v>
+        <v>421</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>405</v>
+        <v>422</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>406</v>
+        <v>423</v>
       </c>
       <c r="M28" s="7">
         <v>111</v>
@@ -6352,13 +6415,13 @@
         <v>121470</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>407</v>
+        <v>424</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>249</v>
+        <v>270</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>408</v>
+        <v>425</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6370,16 +6433,16 @@
         <v>3181</v>
       </c>
       <c r="D29" s="7">
-        <v>3339610</v>
+        <v>3339611</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>409</v>
+        <v>426</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>410</v>
+        <v>427</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>411</v>
+        <v>428</v>
       </c>
       <c r="H29" s="7">
         <v>3256</v>
@@ -6388,13 +6451,13 @@
         <v>3455067</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>412</v>
+        <v>429</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>413</v>
+        <v>430</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>414</v>
+        <v>431</v>
       </c>
       <c r="M29" s="7">
         <v>6437</v>
@@ -6403,13 +6466,13 @@
         <v>6794678</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>415</v>
+        <v>432</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>416</v>
+        <v>433</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>256</v>
+        <v>277</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6421,7 +6484,7 @@
         <v>3223</v>
       </c>
       <c r="D30" s="7">
-        <v>3385634</v>
+        <v>3385635</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -6489,7 +6552,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61F0316B-15C7-4D5D-A435-070D02A13729}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6E5ACF8-521E-4750-8A58-48B36A794E59}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6506,7 +6569,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>417</v>
+        <v>434</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6610,16 +6673,16 @@
         <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>245</v>
+        <v>435</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>224</v>
+        <v>394</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -6628,28 +6691,28 @@
         <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>248</v>
+        <v>269</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
       </c>
       <c r="N4" s="7">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>418</v>
+        <v>436</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>419</v>
+        <v>437</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6661,28 +6724,28 @@
         <v>330</v>
       </c>
       <c r="D5" s="7">
-        <v>259604</v>
+        <v>310745</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>254</v>
+        <v>438</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>231</v>
+        <v>400</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="H5" s="7">
         <v>538</v>
       </c>
       <c r="I5" s="7">
-        <v>271403</v>
+        <v>289635</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>257</v>
+        <v>278</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>30</v>
@@ -6691,16 +6754,16 @@
         <v>868</v>
       </c>
       <c r="N5" s="7">
-        <v>531006</v>
+        <v>600379</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>420</v>
+        <v>439</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>421</v>
+        <v>440</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6712,7 +6775,7 @@
         <v>331</v>
       </c>
       <c r="D6" s="7">
-        <v>260298</v>
+        <v>311443</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -6727,7 +6790,7 @@
         <v>538</v>
       </c>
       <c r="I6" s="7">
-        <v>271403</v>
+        <v>289635</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -6742,7 +6805,7 @@
         <v>869</v>
       </c>
       <c r="N6" s="7">
-        <v>531700</v>
+        <v>601077</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -6765,43 +6828,43 @@
         <v>3</v>
       </c>
       <c r="D7" s="7">
-        <v>4307</v>
+        <v>4185</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>419</v>
+        <v>227</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>392</v>
+        <v>283</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>422</v>
+        <v>441</v>
       </c>
       <c r="H7" s="7">
         <v>6</v>
       </c>
       <c r="I7" s="7">
-        <v>4171</v>
+        <v>3904</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>423</v>
+        <v>442</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>392</v>
+        <v>410</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>424</v>
+        <v>443</v>
       </c>
       <c r="M7" s="7">
         <v>9</v>
       </c>
       <c r="N7" s="7">
-        <v>8477</v>
+        <v>8089</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>425</v>
+        <v>444</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>107</v>
+        <v>445</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>112</v>
@@ -6816,46 +6879,46 @@
         <v>377</v>
       </c>
       <c r="D8" s="7">
-        <v>512103</v>
+        <v>511323</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>421</v>
+        <v>236</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>426</v>
+        <v>446</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>400</v>
+        <v>293</v>
       </c>
       <c r="H8" s="7">
         <v>711</v>
       </c>
       <c r="I8" s="7">
-        <v>550395</v>
+        <v>511065</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>427</v>
+        <v>447</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>428</v>
+        <v>448</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>400</v>
+        <v>417</v>
       </c>
       <c r="M8" s="7">
         <v>1088</v>
       </c>
       <c r="N8" s="7">
-        <v>1062499</v>
+        <v>1022388</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>429</v>
+        <v>449</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>121</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>117</v>
+        <v>450</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6867,7 +6930,7 @@
         <v>380</v>
       </c>
       <c r="D9" s="7">
-        <v>516410</v>
+        <v>515508</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -6882,7 +6945,7 @@
         <v>717</v>
       </c>
       <c r="I9" s="7">
-        <v>554566</v>
+        <v>514969</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -6897,7 +6960,7 @@
         <v>1097</v>
       </c>
       <c r="N9" s="7">
-        <v>1070976</v>
+        <v>1030477</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -6920,46 +6983,46 @@
         <v>11</v>
       </c>
       <c r="D10" s="7">
-        <v>12552</v>
+        <v>12505</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>430</v>
+        <v>451</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>125</v>
+        <v>425</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>431</v>
+        <v>452</v>
       </c>
       <c r="H10" s="7">
         <v>13</v>
       </c>
       <c r="I10" s="7">
-        <v>11739</v>
+        <v>10961</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>432</v>
+        <v>453</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>276</v>
+        <v>443</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>433</v>
+        <v>454</v>
       </c>
       <c r="M10" s="7">
         <v>24</v>
       </c>
       <c r="N10" s="7">
-        <v>24290</v>
+        <v>23466</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>434</v>
+        <v>455</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>210</v>
+        <v>456</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>435</v>
+        <v>457</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6971,46 +7034,46 @@
         <v>346</v>
       </c>
       <c r="D11" s="7">
-        <v>307813</v>
+        <v>301728</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>436</v>
+        <v>458</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>437</v>
+        <v>459</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>134</v>
+        <v>433</v>
       </c>
       <c r="H11" s="7">
         <v>520</v>
       </c>
       <c r="I11" s="7">
-        <v>359758</v>
+        <v>336516</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>438</v>
+        <v>460</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>439</v>
+        <v>461</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>284</v>
+        <v>448</v>
       </c>
       <c r="M11" s="7">
         <v>866</v>
       </c>
       <c r="N11" s="7">
-        <v>667572</v>
+        <v>638244</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>440</v>
+        <v>462</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>441</v>
+        <v>463</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>216</v>
+        <v>464</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7022,7 +7085,7 @@
         <v>357</v>
       </c>
       <c r="D12" s="7">
-        <v>320365</v>
+        <v>314233</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -7037,7 +7100,7 @@
         <v>533</v>
       </c>
       <c r="I12" s="7">
-        <v>371497</v>
+        <v>347477</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -7052,7 +7115,7 @@
         <v>890</v>
       </c>
       <c r="N12" s="7">
-        <v>691862</v>
+        <v>661710</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -7075,46 +7138,46 @@
         <v>11</v>
       </c>
       <c r="D13" s="7">
-        <v>9309</v>
+        <v>9048</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>114</v>
+        <v>241</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>442</v>
+        <v>287</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>443</v>
+        <v>465</v>
       </c>
       <c r="H13" s="7">
         <v>18</v>
       </c>
       <c r="I13" s="7">
-        <v>10241</v>
+        <v>9545</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>185</v>
+        <v>267</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>444</v>
+        <v>229</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>445</v>
+        <v>466</v>
       </c>
       <c r="M13" s="7">
         <v>29</v>
       </c>
       <c r="N13" s="7">
-        <v>19551</v>
+        <v>18593</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>446</v>
+        <v>239</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>76</v>
+        <v>467</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>447</v>
+        <v>468</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7126,46 +7189,46 @@
         <v>280</v>
       </c>
       <c r="D14" s="7">
-        <v>312304</v>
+        <v>302904</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>122</v>
+        <v>248</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>448</v>
+        <v>469</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>449</v>
+        <v>295</v>
       </c>
       <c r="H14" s="7">
         <v>575</v>
       </c>
       <c r="I14" s="7">
-        <v>415321</v>
+        <v>463385</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>192</v>
+        <v>274</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>450</v>
+        <v>470</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>451</v>
+        <v>238</v>
       </c>
       <c r="M14" s="7">
         <v>855</v>
       </c>
       <c r="N14" s="7">
-        <v>727624</v>
+        <v>766290</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>452</v>
+        <v>246</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>453</v>
+        <v>471</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>472</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7177,7 +7240,7 @@
         <v>291</v>
       </c>
       <c r="D15" s="7">
-        <v>321613</v>
+        <v>311952</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -7192,7 +7255,7 @@
         <v>593</v>
       </c>
       <c r="I15" s="7">
-        <v>425562</v>
+        <v>472930</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -7207,7 +7270,7 @@
         <v>884</v>
       </c>
       <c r="N15" s="7">
-        <v>747175</v>
+        <v>784883</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -7230,46 +7293,46 @@
         <v>1</v>
       </c>
       <c r="D16" s="7">
-        <v>682</v>
+        <v>647</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>454</v>
+        <v>269</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>76</v>
+        <v>473</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
       </c>
       <c r="I16" s="7">
-        <v>340</v>
+        <v>315</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>418</v>
+        <v>436</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>261</v>
+        <v>474</v>
       </c>
       <c r="M16" s="7">
         <v>2</v>
       </c>
       <c r="N16" s="7">
-        <v>1022</v>
+        <v>963</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>455</v>
+        <v>435</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>353</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7281,46 +7344,46 @@
         <v>278</v>
       </c>
       <c r="D17" s="7">
-        <v>196066</v>
+        <v>178095</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>456</v>
+        <v>278</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>85</v>
+        <v>475</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="H17" s="7">
         <v>493</v>
       </c>
       <c r="I17" s="7">
-        <v>258693</v>
+        <v>258028</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>420</v>
+        <v>439</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>270</v>
+        <v>476</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="M17" s="7">
         <v>771</v>
       </c>
       <c r="N17" s="7">
-        <v>454758</v>
+        <v>436122</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>457</v>
+        <v>438</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>359</v>
+        <v>29</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7332,7 +7395,7 @@
         <v>279</v>
       </c>
       <c r="D18" s="7">
-        <v>196748</v>
+        <v>178742</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -7347,7 +7410,7 @@
         <v>494</v>
       </c>
       <c r="I18" s="7">
-        <v>259033</v>
+        <v>258343</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -7362,7 +7425,7 @@
         <v>773</v>
       </c>
       <c r="N18" s="7">
-        <v>455780</v>
+        <v>437085</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -7385,46 +7448,46 @@
         <v>2</v>
       </c>
       <c r="D19" s="7">
-        <v>2256</v>
+        <v>2207</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>458</v>
+        <v>265</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>459</v>
+        <v>477</v>
       </c>
       <c r="H19" s="7">
         <v>5</v>
       </c>
       <c r="I19" s="7">
-        <v>2643</v>
+        <v>2461</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>460</v>
+        <v>181</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>365</v>
+        <v>384</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>461</v>
+        <v>11</v>
       </c>
       <c r="M19" s="7">
         <v>7</v>
       </c>
       <c r="N19" s="7">
-        <v>4899</v>
+        <v>4668</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>12</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>454</v>
+        <v>269</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>462</v>
+        <v>478</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7436,46 +7499,46 @@
         <v>369</v>
       </c>
       <c r="D20" s="7">
-        <v>274967</v>
+        <v>267429</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>463</v>
+        <v>273</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>464</v>
+        <v>479</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="H20" s="7">
         <v>455</v>
       </c>
       <c r="I20" s="7">
-        <v>272979</v>
+        <v>254595</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>465</v>
+        <v>191</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>466</v>
+        <v>21</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>370</v>
+        <v>389</v>
       </c>
       <c r="M20" s="7">
         <v>824</v>
       </c>
       <c r="N20" s="7">
-        <v>547946</v>
+        <v>522024</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>23</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>467</v>
+        <v>480</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>456</v>
+        <v>278</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7487,7 +7550,7 @@
         <v>371</v>
       </c>
       <c r="D21" s="7">
-        <v>277223</v>
+        <v>269636</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -7502,7 +7565,7 @@
         <v>460</v>
       </c>
       <c r="I21" s="7">
-        <v>275622</v>
+        <v>257056</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -7517,7 +7580,7 @@
         <v>831</v>
       </c>
       <c r="N21" s="7">
-        <v>552845</v>
+        <v>526692</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -7540,46 +7603,46 @@
         <v>5</v>
       </c>
       <c r="D22" s="7">
-        <v>4261</v>
+        <v>4155</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>356</v>
+        <v>481</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>468</v>
+        <v>482</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>469</v>
+        <v>385</v>
       </c>
       <c r="H22" s="7">
         <v>18</v>
       </c>
       <c r="I22" s="7">
-        <v>14365</v>
+        <v>13274</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>17</v>
+        <v>348</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>470</v>
+        <v>483</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>220</v>
+        <v>315</v>
       </c>
       <c r="M22" s="7">
         <v>23</v>
       </c>
       <c r="N22" s="7">
-        <v>18625</v>
+        <v>17430</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>471</v>
+        <v>484</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>244</v>
+        <v>375</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>52</v>
+        <v>485</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7591,46 +7654,46 @@
         <v>593</v>
       </c>
       <c r="D23" s="7">
-        <v>623333</v>
+        <v>619960</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>362</v>
+        <v>486</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>472</v>
+        <v>390</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>473</v>
+        <v>487</v>
       </c>
       <c r="H23" s="7">
         <v>937</v>
       </c>
       <c r="I23" s="7">
-        <v>786897</v>
+        <v>833295</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>27</v>
+        <v>354</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>227</v>
+        <v>323</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>474</v>
+        <v>488</v>
       </c>
       <c r="M23" s="7">
         <v>1530</v>
       </c>
       <c r="N23" s="7">
-        <v>1410232</v>
+        <v>1453253</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>475</v>
+        <v>489</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>62</v>
+        <v>490</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>252</v>
+        <v>381</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7642,7 +7705,7 @@
         <v>598</v>
       </c>
       <c r="D24" s="7">
-        <v>627594</v>
+        <v>624115</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -7657,7 +7720,7 @@
         <v>955</v>
       </c>
       <c r="I24" s="7">
-        <v>801262</v>
+        <v>846569</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -7672,7 +7735,7 @@
         <v>1553</v>
       </c>
       <c r="N24" s="7">
-        <v>1428857</v>
+        <v>1470683</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -7695,46 +7758,46 @@
         <v>4</v>
       </c>
       <c r="D25" s="7">
-        <v>4338</v>
+        <v>3719</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>476</v>
+        <v>280</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>199</v>
+        <v>491</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>280</v>
+        <v>419</v>
       </c>
       <c r="H25" s="7">
         <v>7</v>
       </c>
       <c r="I25" s="7">
-        <v>5907</v>
+        <v>4953</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>356</v>
+        <v>492</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>198</v>
+        <v>493</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>444</v>
+        <v>74</v>
       </c>
       <c r="M25" s="7">
         <v>11</v>
       </c>
       <c r="N25" s="7">
-        <v>10245</v>
+        <v>8672</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>477</v>
+        <v>224</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>107</v>
+        <v>283</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>478</v>
+        <v>494</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7746,46 +7809,46 @@
         <v>758</v>
       </c>
       <c r="D26" s="7">
-        <v>855090</v>
+        <v>925001</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>479</v>
+        <v>290</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>288</v>
+        <v>428</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>204</v>
+        <v>495</v>
       </c>
       <c r="H26" s="7">
         <v>1054</v>
       </c>
       <c r="I26" s="7">
-        <v>861776</v>
+        <v>712143</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>362</v>
+        <v>496</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>451</v>
+        <v>83</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>203</v>
+        <v>497</v>
       </c>
       <c r="M26" s="7">
         <v>1812</v>
       </c>
       <c r="N26" s="7">
-        <v>1716866</v>
+        <v>1637144</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>480</v>
+        <v>233</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>481</v>
+        <v>498</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>117</v>
+        <v>293</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7797,7 +7860,7 @@
         <v>762</v>
       </c>
       <c r="D27" s="7">
-        <v>859428</v>
+        <v>928720</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>30</v>
@@ -7812,7 +7875,7 @@
         <v>1061</v>
       </c>
       <c r="I27" s="7">
-        <v>867683</v>
+        <v>717096</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>30</v>
@@ -7827,7 +7890,7 @@
         <v>1823</v>
       </c>
       <c r="N27" s="7">
-        <v>1727111</v>
+        <v>1645816</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>30</v>
@@ -7850,46 +7913,46 @@
         <v>38</v>
       </c>
       <c r="D28" s="7">
-        <v>38399</v>
+        <v>37165</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>482</v>
+        <v>106</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>419</v>
+        <v>437</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>243</v>
+        <v>145</v>
       </c>
       <c r="H28" s="7">
         <v>68</v>
       </c>
       <c r="I28" s="7">
-        <v>49406</v>
+        <v>45413</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>483</v>
+        <v>298</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>402</v>
+        <v>372</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>276</v>
+        <v>499</v>
       </c>
       <c r="M28" s="7">
         <v>106</v>
       </c>
       <c r="N28" s="7">
-        <v>87805</v>
+        <v>82578</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>280</v>
+        <v>500</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>484</v>
+        <v>242</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>112</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7901,46 +7964,46 @@
         <v>3331</v>
       </c>
       <c r="D29" s="7">
-        <v>3341280</v>
+        <v>3417184</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>485</v>
+        <v>115</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>250</v>
+        <v>154</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>421</v>
+        <v>440</v>
       </c>
       <c r="H29" s="7">
         <v>5283</v>
       </c>
       <c r="I29" s="7">
-        <v>3777222</v>
+        <v>3658661</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>486</v>
+        <v>306</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>284</v>
+        <v>501</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>411</v>
+        <v>378</v>
       </c>
       <c r="M29" s="7">
         <v>8614</v>
       </c>
       <c r="N29" s="7">
-        <v>7118502</v>
+        <v>7075845</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>288</v>
+        <v>502</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>121</v>
+        <v>83</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>487</v>
+        <v>250</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7952,7 +8015,7 @@
         <v>3369</v>
       </c>
       <c r="D30" s="7">
-        <v>3379679</v>
+        <v>3454349</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -7967,7 +8030,7 @@
         <v>5351</v>
       </c>
       <c r="I30" s="7">
-        <v>3826628</v>
+        <v>3704074</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -7982,7 +8045,7 @@
         <v>8720</v>
       </c>
       <c r="N30" s="7">
-        <v>7206307</v>
+        <v>7158423</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
